--- a/Autocomplete/HAT - AngularJS - Autocomplete.xlsx
+++ b/Autocomplete/HAT - AngularJS - Autocomplete.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdoll\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdoll\Documents\GitHub\AngularJS-Components\Autocomplete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Criterios" sheetId="2" r:id="rId1"/>
@@ -651,6 +651,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,81 +688,53 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1160,7 +1160,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="21" t="s">
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="34"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="21" t="s">
         <v>23</v>
       </c>
@@ -1180,7 +1180,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="34"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="21" t="s">
         <v>22</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
@@ -1198,7 +1198,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="36"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="25" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1234,7 @@
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -1245,7 +1245,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="34"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="21" t="s">
         <v>23</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="34"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="21" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="35"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="21" t="s">
         <v>21</v>
       </c>
@@ -1272,7 +1272,7 @@
       </c>
     </row>
     <row r="21" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="25" t="s">
         <v>20</v>
       </c>
@@ -1309,7 +1309,7 @@
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -1320,7 +1320,7 @@
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="34"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="21" t="s">
         <v>23</v>
       </c>
@@ -1329,7 +1329,7 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="34"/>
+      <c r="B28" s="44"/>
       <c r="C28" s="21" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1338,7 @@
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="35"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="21" t="s">
         <v>21</v>
       </c>
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="30" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="25" t="s">
         <v>20</v>
       </c>
@@ -1384,7 +1384,7 @@
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="44" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="21" t="s">
@@ -1395,7 +1395,7 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="34"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="21" t="s">
         <v>23</v>
       </c>
@@ -1404,7 +1404,7 @@
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" s="34"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="21" t="s">
         <v>22</v>
       </c>
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="35"/>
+      <c r="B38" s="45"/>
       <c r="C38" s="21" t="s">
         <v>21</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
     </row>
     <row r="39" spans="2:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="36"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="25" t="s">
         <v>20</v>
       </c>
@@ -1451,8 +1451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1485,73 +1485,73 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="57"/>
       <c r="N4" s="5"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
       <c r="N5" s="5"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="60"/>
       <c r="N6" s="5"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="60"/>
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="2:14" s="11" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="40"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="54"/>
     </row>
     <row r="11" spans="2:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="20"/>
@@ -1566,46 +1566,46 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="17"/>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="52" t="str">
+      <c r="D12" s="61" t="str">
         <f>Alternativas!C5</f>
         <v>Autocomplete by justgoscha</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="52" t="str">
+      <c r="E12" s="62"/>
+      <c r="F12" s="61" t="str">
         <f>Alternativas!C7</f>
         <v>ngAutocomplete by wpalahnuk</v>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="52" t="str">
+      <c r="G12" s="62"/>
+      <c r="H12" s="61" t="str">
         <f>Alternativas!C9</f>
         <v xml:space="preserve">Angucomplete by  darylrowland </v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="53" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="38" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="20"/>
@@ -1616,31 +1616,31 @@
         <f>Criterios!C6</f>
         <v>Features: Debe tener por lo menos: Usar una lista en el scope, obtenerla de un servicio, busqueda case insensitive y en cualquier lugar del string. Tambien estaria bueno que te permite elegir solamente los valores sugeridos o tambien elegir los propios</v>
       </c>
-      <c r="C14" s="50">
+      <c r="C14" s="35">
         <v>30</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="38">
         <f>IF(D14 &lt;&gt; "", $C14*VLOOKUP(D14,Criterios!$C$8:$D$12,2,FALSE)/100, "")</f>
         <v>24</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="54">
+      <c r="G14" s="38">
         <f>IF(F14 &lt;&gt; "", $C14*VLOOKUP(F14,Criterios!$C$8:$D$12,2,FALSE)/100, "")</f>
         <v>18</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="38">
         <f>IF(H14 &lt;&gt; "", $C14*VLOOKUP(H14,Criterios!$C$8:$D$12,2,FALSE)/100, "")</f>
         <v>30</v>
       </c>
-      <c r="J14" s="47"/>
+      <c r="J14" s="34"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
@@ -1648,31 +1648,31 @@
         <f>Criterios!C15</f>
         <v>Facilidad de uso</v>
       </c>
-      <c r="C15" s="50">
+      <c r="C15" s="35">
         <v>30</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="38">
         <f>IF(D15 &lt;&gt; "", $C15*VLOOKUP(D15,Criterios!$C$17:$D$21,2,FALSE)/100, "")</f>
         <v>24</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="38">
         <f>IF(F15 &lt;&gt; "", $C15*VLOOKUP(F15,Criterios!$C$17:$D$21,2,FALSE)/100, "")</f>
         <v>24</v>
       </c>
-      <c r="H15" s="55" t="s">
+      <c r="H15" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="54">
+      <c r="I15" s="38">
         <f>IF(H15 &lt;&gt; "", $C15*VLOOKUP(H15,Criterios!$C$17:$D$21,2,FALSE)/100, "")</f>
         <v>30</v>
       </c>
-      <c r="J15" s="47"/>
+      <c r="J15" s="34"/>
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
@@ -1680,31 +1680,31 @@
         <f>Criterios!C24</f>
         <v>Documentacion/Adopcion. Que tan documentado y que tanta gente lo usa</v>
       </c>
-      <c r="C16" s="50">
+      <c r="C16" s="35">
         <v>30</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="38">
         <f>IF(D16 &lt;&gt; "", $C16*VLOOKUP(D16,Criterios!$C$26:$D$30,2,FALSE)/100, "")</f>
         <v>24</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="38">
         <f>IF(F16 &lt;&gt; "", $C16*VLOOKUP(F16,Criterios!$C$26:$D$30,2,FALSE)/100, "")</f>
         <v>24</v>
       </c>
-      <c r="H16" s="55" t="s">
+      <c r="H16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="38">
         <f>IF(H16 &lt;&gt; "", $C16*VLOOKUP(H16,Criterios!$C$26:$D$30,2,FALSE)/100, "")</f>
         <v>30</v>
       </c>
-      <c r="J16" s="47"/>
+      <c r="J16" s="34"/>
       <c r="K16" s="20"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
@@ -1712,57 +1712,57 @@
         <f>Criterios!C33</f>
         <v>Implementacion. Que tan bien implementado esta, si es 100% angularJS o esta basado en jQuery</v>
       </c>
-      <c r="C17" s="50">
+      <c r="C17" s="35">
         <v>10</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="38">
         <f>IF(D17 &lt;&gt; "", $C17*VLOOKUP(D17,Criterios!$C$35:$D$39,2,FALSE)/100, "")</f>
         <v>8</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G17" s="54">
+      <c r="G17" s="38">
         <f>IF(F17 &lt;&gt; "", $C17*VLOOKUP(F17,Criterios!$C$35:$D$39,2,FALSE)/100, "")</f>
         <v>6</v>
       </c>
-      <c r="H17" s="55" t="s">
+      <c r="H17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="38">
         <f>IF(H17 &lt;&gt; "", $C17*VLOOKUP(H17,Criterios!$C$35:$D$39,2,FALSE)/100, "")</f>
         <v>10</v>
       </c>
-      <c r="J17" s="47"/>
+      <c r="J17" s="34"/>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="36">
         <f>SUM(C14:C17)</f>
         <v>100</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="19">
         <f>SUM(E14:E17)</f>
         <v>80</v>
       </c>
-      <c r="F18" s="56"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="19">
         <f>SUM(G14:G17)</f>
         <v>72</v>
       </c>
-      <c r="H18" s="56"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="19">
         <f>SUM(I14:I17)</f>
         <v>100</v>
       </c>
-      <c r="J18" s="47"/>
+      <c r="J18" s="34"/>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1770,22 +1770,22 @@
       <c r="K19" s="29"/>
     </row>
     <row r="20" spans="2:11" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="48"/>
+      <c r="F20" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59" t="s">
+      <c r="G20" s="48"/>
+      <c r="H20" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="58"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K23" s="29"/>
@@ -1837,11 +1837,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C8:I8"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C6:I6"/>
@@ -1849,6 +1844,11 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C8:I8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1914,11 +1914,11 @@
     </row>
     <row r="6" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
     </row>
     <row r="7" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1937,11 +1937,11 @@
     </row>
     <row r="8" spans="2:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
@@ -1981,19 +1981,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Metodologia xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">02 - Ágil (Scrum)</Metodologia>
+    <Lenguaje xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">01 - Java</Lenguaje>
+    <Documento xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">012 - Evaluación de Alternativas</Documento>
+    <Proyecto xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">HAT</Proyecto>
+    <Repositorio xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">SHP</Repositorio>
+    <Obvservaciones xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D3550BD671CC24D8634658C19DF9C1C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="969819dc742d0d1a9d6c20a33d35a298">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="f3260fcb-196f-4a41-9fc2-30acd94c5c3c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="483f2b551340af08ea73f0ea32415658" ns1:_="">
     <xsd:import namespace="f3260fcb-196f-4a41-9fc2-30acd94c5c3c"/>
@@ -2185,36 +2185,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Metodologia xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">02 - Ágil (Scrum)</Metodologia>
-    <Lenguaje xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">01 - Java</Lenguaje>
-    <Documento xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">012 - Evaluación de Alternativas</Documento>
-    <Proyecto xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">HAT</Proyecto>
-    <Repositorio xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c">SHP</Repositorio>
-    <Obvservaciones xmlns="f3260fcb-196f-4a41-9fc2-30acd94c5c3c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9AA2E3-8F3B-4292-9D75-D05EDCED349E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A06C287C-3057-48AA-9B31-96FE558091AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3260fcb-196f-4a41-9fc2-30acd94c5c3c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26AE9AD1-614C-4253-B2E8-15D7A4DC770C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7BD0ABB0-1E8D-4DCD-AB56-33C8E5C70157}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2232,11 +2225,18 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26AE9AD1-614C-4253-B2E8-15D7A4DC770C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A06C287C-3057-48AA-9B31-96FE558091AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D9AA2E3-8F3B-4292-9D75-D05EDCED349E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f3260fcb-196f-4a41-9fc2-30acd94c5c3c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>